--- a/results_2hl.xlsx
+++ b/results_2hl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="0" windowWidth="25600" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="10">
   <si>
     <t>run</t>
   </si>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -493,7 +493,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
@@ -505,10 +505,10 @@
         <v>9</v>
       </c>
       <c r="H2" s="3">
-        <v>221.874424</v>
+        <v>342.44914799999998</v>
       </c>
       <c r="I2" s="3">
-        <v>0.90555200000000002</v>
+        <v>0.79490499999999997</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -522,7 +522,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>8</v>
@@ -534,10 +534,10 @@
         <v>9</v>
       </c>
       <c r="H3" s="3">
-        <v>101.82812699999999</v>
+        <v>241.04107099999999</v>
       </c>
       <c r="I3" s="3">
-        <v>0.956654</v>
+        <v>0.85563900000000004</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -551,7 +551,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
@@ -563,10 +563,10 @@
         <v>9</v>
       </c>
       <c r="H4" s="3">
-        <v>146.866029</v>
+        <v>357.04757999999998</v>
       </c>
       <c r="I4" s="3">
-        <v>0.93748200000000004</v>
+        <v>0.78616200000000003</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -580,7 +580,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
@@ -592,10 +592,10 @@
         <v>9</v>
       </c>
       <c r="H5" s="3">
-        <v>173.55457699999999</v>
+        <v>331.01748900000001</v>
       </c>
       <c r="I5" s="3">
-        <v>0.92612099999999997</v>
+        <v>0.80175200000000002</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -606,10 +606,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>8</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="H6" s="3">
-        <v>217.21674400000001</v>
+        <v>35.199548999999998</v>
       </c>
       <c r="I6" s="3">
-        <v>0.90753499999999998</v>
+        <v>0.97891899999999998</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -635,10 +635,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
@@ -650,10 +650,10 @@
         <v>9</v>
       </c>
       <c r="H7" s="3">
-        <v>103.96091300000001</v>
+        <v>83.215029999999999</v>
       </c>
       <c r="I7" s="3">
-        <v>0.95574599999999998</v>
+        <v>0.95016199999999995</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -667,7 +667,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
@@ -679,10 +679,10 @@
         <v>9</v>
       </c>
       <c r="H8" s="3">
-        <v>134.29436699999999</v>
+        <v>233.03638100000001</v>
       </c>
       <c r="I8" s="3">
-        <v>0.94283300000000003</v>
+        <v>0.860433</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -696,7 +696,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
@@ -708,10 +708,10 @@
         <v>9</v>
       </c>
       <c r="H9" s="3">
-        <v>237.88554500000001</v>
+        <v>192.958068</v>
       </c>
       <c r="I9" s="3">
-        <v>0.89873599999999998</v>
+        <v>0.884436</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -722,10 +722,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="3">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>8</v>
@@ -737,10 +737,10 @@
         <v>9</v>
       </c>
       <c r="H10" s="3">
-        <v>267.52713599999998</v>
+        <v>291.492706</v>
       </c>
       <c r="I10" s="3">
-        <v>0.88611799999999996</v>
+        <v>0.82542300000000002</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -751,10 +751,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="3">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>8</v>
@@ -766,10 +766,10 @@
         <v>9</v>
       </c>
       <c r="H11" s="3">
-        <v>204.86738500000001</v>
+        <v>74.974761999999998</v>
       </c>
       <c r="I11" s="3">
-        <v>0.91279200000000005</v>
+        <v>0.95509699999999997</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -780,10 +780,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="3">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
@@ -795,10 +795,10 @@
         <v>9</v>
       </c>
       <c r="H12" s="3">
-        <v>134.25955200000001</v>
+        <v>52.05527</v>
       </c>
       <c r="I12" s="3">
-        <v>0.94284800000000002</v>
+        <v>0.96882400000000002</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -809,10 +809,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="3">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D13" s="3">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>8</v>
@@ -824,10 +824,10 @@
         <v>9</v>
       </c>
       <c r="H13" s="3">
-        <v>201.593335</v>
+        <v>336.75471499999998</v>
       </c>
       <c r="I13" s="3">
-        <v>0.91418500000000003</v>
+        <v>0.79831600000000003</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -838,10 +838,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D14" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -853,10 +853,10 @@
         <v>9</v>
       </c>
       <c r="H14" s="3">
-        <v>777.11090300000001</v>
+        <v>343.05552399999999</v>
       </c>
       <c r="I14" s="3">
-        <v>0.66919799999999996</v>
+        <v>0.79454199999999997</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -867,10 +867,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D15" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
@@ -882,10 +882,10 @@
         <v>9</v>
       </c>
       <c r="H15" s="3">
-        <v>547.03869599999996</v>
+        <v>431.70894700000002</v>
       </c>
       <c r="I15" s="3">
-        <v>0.76713500000000001</v>
+        <v>0.74144699999999997</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -896,10 +896,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D16" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>8</v>
@@ -911,10 +911,10 @@
         <v>9</v>
       </c>
       <c r="H16" s="3">
-        <v>711.73202600000002</v>
+        <v>384.33625799999999</v>
       </c>
       <c r="I16" s="3">
-        <v>0.69702799999999998</v>
+        <v>0.76981900000000003</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -925,10 +925,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D17" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>8</v>
@@ -940,10 +940,10 @@
         <v>9</v>
       </c>
       <c r="H17" s="3">
-        <v>730.40078100000005</v>
+        <v>484.59704199999999</v>
       </c>
       <c r="I17" s="3">
-        <v>0.68908100000000005</v>
+        <v>0.70977199999999996</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -954,10 +954,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="3">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D18" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>8</v>
@@ -969,10 +969,10 @@
         <v>9</v>
       </c>
       <c r="H18" s="3">
-        <v>2114.8729629999998</v>
+        <v>587.20713699999999</v>
       </c>
       <c r="I18" s="3">
-        <v>9.9737000000000006E-2</v>
+        <v>0.64831799999999995</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -983,10 +983,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="3">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D19" s="3">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>8</v>
@@ -998,10 +998,10 @@
         <v>9</v>
       </c>
       <c r="H19" s="3">
-        <v>2251.059072</v>
+        <v>225.75714099999999</v>
       </c>
       <c r="I19" s="3">
-        <v>4.1764999999999997E-2</v>
+        <v>0.86479300000000003</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1012,10 +1012,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D20" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>8</v>
@@ -1027,10 +1027,10 @@
         <v>9</v>
       </c>
       <c r="H20" s="3">
-        <v>2299.0637649999999</v>
+        <v>4460.1546609999996</v>
       </c>
       <c r="I20" s="3">
-        <v>2.1329999999999998E-2</v>
+        <v>-1.671211</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1041,10 +1041,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D21" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
@@ -1056,10 +1056,10 @@
         <v>9</v>
       </c>
       <c r="H21" s="3">
-        <v>2165.6261180000001</v>
+        <v>315.17017499999997</v>
       </c>
       <c r="I21" s="3">
-        <v>7.8131999999999993E-2</v>
+        <v>0.81124300000000005</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1070,10 +1070,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D22" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
@@ -1085,10 +1085,10 @@
         <v>9</v>
       </c>
       <c r="H22" s="3">
-        <v>3459.6707719999999</v>
+        <v>262.19066800000002</v>
       </c>
       <c r="I22" s="3">
-        <v>-0.47271999999999997</v>
+        <v>0.84297299999999997</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1099,10 +1099,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D23" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>8</v>
@@ -1114,10 +1114,10 @@
         <v>9</v>
       </c>
       <c r="H23" s="3">
-        <v>3367.0111189999998</v>
+        <v>193.92537300000001</v>
       </c>
       <c r="I23" s="3">
-        <v>-0.43327599999999999</v>
+        <v>0.883857</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1128,10 +1128,10 @@
         <v>23</v>
       </c>
       <c r="C24" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D24" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>8</v>
@@ -1143,10 +1143,10 @@
         <v>9</v>
       </c>
       <c r="H24" s="3">
-        <v>3352.420646</v>
+        <v>338.59036500000002</v>
       </c>
       <c r="I24" s="3">
-        <v>-0.42706499999999997</v>
+        <v>0.79721600000000004</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1157,29 +1157,374 @@
         <v>24</v>
       </c>
       <c r="C25" s="3">
+        <v>100</v>
+      </c>
+      <c r="D25" s="3">
+        <v>20</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="3">
+        <v>225.739735</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.86480299999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="4">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2">
+        <v>200</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="2">
+        <v>317.27184899999997</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.80998400000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="2">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2">
+        <v>200</v>
+      </c>
+      <c r="D27" s="2">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="2">
+        <v>315.92709200000002</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.81079000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="2">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2">
+        <v>200</v>
+      </c>
+      <c r="D28" s="2">
+        <v>6</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="2">
+        <v>359.04607700000003</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.78496500000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2">
+        <v>200</v>
+      </c>
+      <c r="D29" s="2">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="2">
+        <v>369.34921700000001</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.77879500000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2">
+        <v>200</v>
+      </c>
+      <c r="D30" s="2">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="2">
+        <v>241.43160599999999</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.85540499999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2">
+        <v>200</v>
+      </c>
+      <c r="D31" s="2">
+        <v>20</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="2">
+        <v>278.20194099999998</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.83338299999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="2">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2">
         <v>400</v>
       </c>
-      <c r="D25" s="3">
-        <v>11</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="3">
-        <v>3386.2724539999999</v>
-      </c>
-      <c r="I25" s="3">
-        <v>-0.44147500000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="4"/>
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="2">
+        <v>4585.9464239999998</v>
+      </c>
+      <c r="I32" s="2">
+        <v>-1.746548</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="2">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2">
+        <v>400</v>
+      </c>
+      <c r="D33" s="2">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="2">
+        <v>613.44965500000001</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.632602</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="2">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2">
+        <v>33</v>
+      </c>
+      <c r="C34" s="2">
+        <v>400</v>
+      </c>
+      <c r="D34" s="2">
+        <v>6</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="2">
+        <v>564.929709</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.66166100000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="2">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2">
+        <v>400</v>
+      </c>
+      <c r="D35" s="2">
+        <v>8</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="2">
+        <v>532.91030799999999</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.68083700000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="2">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2">
+        <v>35</v>
+      </c>
+      <c r="C36" s="2">
+        <v>400</v>
+      </c>
+      <c r="D36" s="2">
+        <v>9</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="2">
+        <v>502.42801500000002</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0.69909299999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="2">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2">
+        <v>36</v>
+      </c>
+      <c r="C37" s="2">
+        <v>400</v>
+      </c>
+      <c r="D37" s="2">
+        <v>20</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="2">
+        <v>410.73434200000003</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.75400900000000004</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
